--- a/June19-Mailing.xlsx
+++ b/June19-Mailing.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="1062">
   <si>
     <t xml:space="preserve">CSS - The Complete Guide (incl. Flexbox- Grid &amp; Sass)</t>
   </si>
@@ -153,12 +153,18 @@
     <t xml:space="preserve">https://www.eduonix.com/angular-4-the-complete-guide?utm_source=emailer&amp;utm_medium=email11&amp;utm_campaign=99-rs-sale-2019</t>
   </si>
   <si>
+    <t xml:space="preserve">5.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.eduonix.com/angular-4-the-complete-guide?utm_source=emailer&amp;utm_medium=email11&amp;utm_campaign=dollar-1-sale-2019</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.eduonix.com/react-the-complete-guide-incl-redux?utm_source=emailer&amp;utm_medium=email11&amp;utm_campaign=99-rs-sale-2019</t>
   </si>
   <si>
+    <t xml:space="preserve">6.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.eduonix.com/react-the-complete-guide-incl-redux?utm_source=emailer&amp;utm_medium=email11&amp;utm_campaign=dollar-1-sale-2019</t>
   </si>
   <si>
@@ -168,6 +174,9 @@
     <t xml:space="preserve">https://www.eduonix.com/flutter-dart-the-complete-flutter-app-development-course?utm_source=emailer&amp;utm_medium=email11&amp;utm_campaign=99-rs-sale-2019</t>
   </si>
   <si>
+    <t xml:space="preserve">7.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.eduonix.com/flutter-dart-the-complete-flutter-app-development-course?utm_source=emailer&amp;utm_medium=email11&amp;utm_campaign=dollar-1-sale-2019</t>
   </si>
   <si>
@@ -175,6 +184,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.eduonix.com/courses/Web-Development/learn-to-create-wordpress-themes-by-building-10-projects?utm_source=emailer&amp;utm_medium=email11&amp;utm_campaign=99-rs-sale-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.eduonix.com/courses/Web-Development/learn-to-create-wordpress-themes-by-building-10-projects?utm_source=emailer&amp;utm_medium=email11&amp;utm_campaign=dollar-1-sale-2019</t>
@@ -3597,12 +3609,12 @@
   <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A11:D23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3736,24 +3748,24 @@
   <dimension ref="A1:Z33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A11:D23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.9183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="52.3775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.2397959183674"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.8367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="13" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>21</v>
@@ -3786,16 +3798,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="32" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
@@ -3822,16 +3834,16 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="32" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
@@ -3858,16 +3870,16 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="32" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
@@ -3894,16 +3906,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="32" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
@@ -3930,16 +3942,16 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
@@ -3966,16 +3978,16 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
@@ -4002,16 +4014,16 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
@@ -4038,16 +4050,16 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
@@ -4074,16 +4086,16 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
@@ -4110,16 +4122,16 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
@@ -4146,16 +4158,16 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
@@ -4182,16 +4194,16 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
@@ -4274,10 +4286,10 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>21</v>
@@ -4310,16 +4322,16 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -4346,16 +4358,16 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
@@ -4382,16 +4394,16 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -4418,16 +4430,16 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
@@ -4454,16 +4466,16 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
@@ -4490,16 +4502,16 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
@@ -4526,16 +4538,16 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
@@ -4562,16 +4574,16 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
@@ -4627,10 +4639,10 @@
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="23"/>
       <c r="B26" s="17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="23"/>
@@ -4659,10 +4671,10 @@
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="23"/>
       <c r="B27" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="23"/>
@@ -4691,10 +4703,10 @@
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="23"/>
       <c r="B28" s="18" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="23"/>
@@ -4779,10 +4791,10 @@
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="23"/>
       <c r="B31" s="17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="23"/>
@@ -4811,10 +4823,10 @@
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="23"/>
       <c r="B32" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="23"/>
@@ -4843,10 +4855,10 @@
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="23"/>
       <c r="B33" s="18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="23"/>
@@ -4965,23 +4977,23 @@
   <dimension ref="A1:Z65"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A11:D23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.6836734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.1938775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="28.7551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.1428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.515306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>21</v>
@@ -5014,16 +5026,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
@@ -5050,16 +5062,16 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="33" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
@@ -5086,16 +5098,16 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="33" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
@@ -5122,16 +5134,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="33" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
@@ -5158,16 +5170,16 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="33" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
@@ -5194,16 +5206,16 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="33" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
@@ -5230,16 +5242,16 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="33" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
@@ -5266,16 +5278,16 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="33" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
@@ -5302,16 +5314,16 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="34" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
@@ -5338,16 +5350,16 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="33" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
@@ -5374,16 +5386,16 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="33" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
@@ -5410,16 +5422,16 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="33" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
@@ -5446,16 +5458,16 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="33" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
@@ -5482,16 +5494,16 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="33" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
@@ -5518,16 +5530,16 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="33" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
@@ -5554,16 +5566,16 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="33" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -5590,16 +5602,16 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="33" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
@@ -5626,16 +5638,16 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="34" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -5662,16 +5674,16 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="33" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
@@ -5698,16 +5710,16 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="33" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
@@ -5734,16 +5746,16 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="33" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
@@ -5770,16 +5782,16 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="33" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
@@ -5806,16 +5818,16 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="33" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
@@ -5842,16 +5854,16 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="33" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
@@ -5878,16 +5890,16 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
@@ -5914,16 +5926,16 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="33" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
@@ -5950,16 +5962,16 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="33" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
@@ -5986,16 +5998,16 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="33" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
@@ -6022,16 +6034,16 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="33" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
@@ -6058,16 +6070,16 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="33" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
@@ -6123,10 +6135,10 @@
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="33"/>
       <c r="B33" s="17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="23"/>
@@ -6155,10 +6167,10 @@
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="33"/>
       <c r="B34" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="23"/>
@@ -6187,10 +6199,10 @@
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="33"/>
       <c r="B35" s="18" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="23"/>
@@ -6247,10 +6259,10 @@
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="33"/>
       <c r="B37" s="17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="23"/>
@@ -6279,10 +6291,10 @@
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="33"/>
       <c r="B38" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="23"/>
@@ -6311,10 +6323,10 @@
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="33"/>
       <c r="B39" s="18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="23"/>
@@ -6398,10 +6410,10 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>21</v>
@@ -6434,16 +6446,16 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="23" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="23"/>
@@ -6470,16 +6482,16 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="23" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="E44" s="23"/>
       <c r="F44" s="23"/>
@@ -6506,16 +6518,16 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="23" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
@@ -6598,10 +6610,10 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>21</v>
@@ -6634,16 +6646,16 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
@@ -6670,16 +6682,16 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B50" s="21" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
@@ -6706,16 +6718,16 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="11" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="E51" s="23"/>
       <c r="F51" s="23"/>
@@ -6742,16 +6754,16 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="11" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="E52" s="23"/>
       <c r="F52" s="23"/>
@@ -6834,10 +6846,10 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>21</v>
@@ -6870,16 +6882,16 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="23" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="E56" s="23"/>
       <c r="F56" s="23"/>
@@ -6906,16 +6918,16 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="23" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="23"/>
@@ -6942,16 +6954,16 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="23" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="E58" s="23"/>
       <c r="F58" s="23"/>
@@ -6978,16 +6990,16 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="23" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B59" s="29" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="23"/>
@@ -7071,13 +7083,13 @@
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="23"/>
       <c r="B62" s="17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="E62" s="23"/>
       <c r="F62" s="23"/>
@@ -7105,13 +7117,13 @@
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="23"/>
       <c r="B63" s="17" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="E63" s="23"/>
       <c r="F63" s="23"/>
@@ -7139,13 +7151,13 @@
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="23"/>
       <c r="B64" s="17" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="E64" s="23"/>
       <c r="F64" s="23"/>
@@ -7173,13 +7185,13 @@
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="23"/>
       <c r="B65" s="17" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="E65" s="23"/>
       <c r="F65" s="23"/>
@@ -7368,23 +7380,23 @@
   <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A11:D23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.7857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.2040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.1122448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.6632653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>21</v>
@@ -7417,16 +7429,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
@@ -7453,16 +7465,16 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
@@ -7489,16 +7501,16 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
@@ -7525,16 +7537,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
@@ -7561,16 +7573,16 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
@@ -7597,16 +7609,16 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
@@ -7633,16 +7645,16 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
@@ -7669,16 +7681,16 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
@@ -7705,16 +7717,16 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
@@ -7741,16 +7753,16 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
@@ -7833,10 +7845,10 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="35" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>21</v>
@@ -7869,16 +7881,16 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="28" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
@@ -7905,16 +7917,16 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="28" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -7941,16 +7953,16 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="28" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
@@ -7977,16 +7989,16 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="28" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -8013,16 +8025,16 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="28" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
@@ -8055,10 +8067,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
@@ -8144,7 +8156,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>21</v>
@@ -8183,10 +8195,10 @@
         <v>9</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
@@ -8216,13 +8228,13 @@
         <v>30</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
@@ -8252,13 +8264,13 @@
         <v>26</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
@@ -8291,10 +8303,10 @@
         <v>7</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
@@ -8321,16 +8333,16 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="19" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
@@ -8357,16 +8369,16 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
@@ -8450,13 +8462,13 @@
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="19"/>
       <c r="B32" s="17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
@@ -8484,13 +8496,13 @@
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="19"/>
       <c r="B33" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
@@ -8518,13 +8530,13 @@
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="19"/>
       <c r="B34" s="18" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
@@ -8552,13 +8564,13 @@
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="19"/>
       <c r="B35" s="18" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
@@ -8586,13 +8598,13 @@
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="19"/>
       <c r="B36" s="18" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
@@ -8648,10 +8660,10 @@
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="19"/>
       <c r="B38" s="18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
@@ -8680,10 +8692,10 @@
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="19"/>
       <c r="B39" s="18" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="19"/>
@@ -8712,10 +8724,10 @@
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="19"/>
       <c r="B40" s="18" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
@@ -8844,24 +8856,24 @@
   <dimension ref="A1:Z64"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A11:D23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.6989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.5765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.0204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.0357142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="36" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C1" s="36" t="s">
         <v>21</v>
@@ -8894,16 +8906,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="32" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
@@ -8930,16 +8942,16 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="32" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
@@ -8972,10 +8984,10 @@
         <v>19</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
@@ -9008,10 +9020,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
@@ -9067,13 +9079,13 @@
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="32"/>
       <c r="B7" s="25" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
@@ -9156,10 +9168,10 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="36" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C10" s="36" t="s">
         <v>21</v>
@@ -9192,16 +9204,16 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="32" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
@@ -9228,16 +9240,16 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
@@ -9270,10 +9282,10 @@
         <v>13</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
@@ -9303,13 +9315,13 @@
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
@@ -9365,13 +9377,13 @@
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="32"/>
       <c r="B16" s="25" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
@@ -9454,10 +9466,10 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="36" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>21</v>
@@ -9490,16 +9502,16 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="32" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
@@ -9526,16 +9538,16 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="32" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
@@ -9562,16 +9574,16 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="32" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
@@ -9604,10 +9616,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
@@ -9663,13 +9675,13 @@
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="32"/>
       <c r="B25" s="25" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
@@ -9752,10 +9764,10 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="36" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C28" s="36" t="s">
         <v>21</v>
@@ -9788,16 +9800,16 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="32" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
@@ -9824,16 +9836,16 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
@@ -9860,16 +9872,16 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
@@ -9896,16 +9908,16 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="32" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
@@ -9961,13 +9973,13 @@
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="32"/>
       <c r="B34" s="25" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
@@ -10050,10 +10062,10 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="36" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C37" s="36" t="s">
         <v>21</v>
@@ -10086,16 +10098,16 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
@@ -10122,16 +10134,16 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="E39" s="23"/>
       <c r="F39" s="23"/>
@@ -10158,16 +10170,16 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="E40" s="23"/>
       <c r="F40" s="23"/>
@@ -10194,16 +10206,16 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="E41" s="23"/>
       <c r="F41" s="23"/>
@@ -10259,13 +10271,13 @@
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11"/>
       <c r="B43" s="25" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="23"/>
@@ -10348,10 +10360,10 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="36" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C46" s="36" t="s">
         <v>21</v>
@@ -10384,16 +10396,16 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="32" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="23"/>
@@ -10420,16 +10432,16 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="23"/>
@@ -10456,16 +10468,16 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="11" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
@@ -10492,16 +10504,16 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="32" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
@@ -10557,13 +10569,13 @@
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="32"/>
       <c r="B52" s="25" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="E52" s="23"/>
       <c r="F52" s="23"/>
@@ -10646,10 +10658,10 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="36" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C55" s="36" t="s">
         <v>21</v>
@@ -10682,16 +10694,16 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="23" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B56" s="29" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="E56" s="23"/>
       <c r="F56" s="23"/>
@@ -10718,16 +10730,16 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="23" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="E57" s="23"/>
       <c r="F57" s="23"/>
@@ -10754,16 +10766,16 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="23" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="E58" s="23"/>
       <c r="F58" s="23"/>
@@ -10847,13 +10859,13 @@
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="23"/>
       <c r="B61" s="17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="E61" s="23"/>
       <c r="F61" s="23"/>
@@ -10881,13 +10893,13 @@
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="23"/>
       <c r="B62" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="E62" s="23"/>
       <c r="F62" s="23"/>
@@ -10915,13 +10927,13 @@
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="23"/>
       <c r="B63" s="17" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="E63" s="23"/>
       <c r="F63" s="23"/>
@@ -10949,13 +10961,13 @@
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="23"/>
       <c r="B64" s="17" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="E64" s="23"/>
       <c r="F64" s="23"/>
@@ -11112,24 +11124,24 @@
   <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A11:D23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.1887755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.1989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.1581632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.5102040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.7551020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="36" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C1" s="36" t="s">
         <v>21</v>
@@ -11168,10 +11180,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
@@ -11198,16 +11210,16 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="32" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
@@ -11234,16 +11246,16 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="32" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
@@ -11270,16 +11282,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="23" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
@@ -11312,10 +11324,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
@@ -11342,16 +11354,16 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
@@ -11384,10 +11396,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
@@ -11414,16 +11426,16 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
@@ -11478,10 +11490,10 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="36" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>21</v>
@@ -11514,16 +11526,16 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
@@ -11550,16 +11562,16 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
@@ -11614,10 +11626,10 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="36" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>21</v>
@@ -11650,16 +11662,16 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
@@ -11686,16 +11698,16 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -11722,16 +11734,16 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
@@ -11758,16 +11770,16 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -11822,10 +11834,10 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="36" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C21" s="36" t="s">
         <v>21</v>
@@ -11858,16 +11870,16 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="23" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
@@ -11894,16 +11906,16 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="23" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
@@ -11930,16 +11942,16 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="23" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
@@ -12023,13 +12035,13 @@
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="23"/>
       <c r="B27" s="17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
@@ -12057,13 +12069,13 @@
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="23"/>
       <c r="B28" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
@@ -12091,13 +12103,13 @@
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="23"/>
       <c r="B29" s="17" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
@@ -12125,13 +12137,13 @@
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="23"/>
       <c r="B30" s="17" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
@@ -12159,13 +12171,13 @@
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="23"/>
       <c r="B31" s="17" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
@@ -12277,24 +12289,24 @@
   <dimension ref="A1:Z33"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A11:D23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.1785714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.0918367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.6887755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.8877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="36" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C1" s="36" t="s">
         <v>21</v>
@@ -12333,10 +12345,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
@@ -12366,13 +12378,13 @@
         <v>30</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
@@ -12402,13 +12414,13 @@
         <v>26</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
@@ -12441,10 +12453,10 @@
         <v>17</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
@@ -12471,16 +12483,16 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
@@ -12507,16 +12519,16 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
@@ -12543,16 +12555,16 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
@@ -12607,10 +12619,10 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="36" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C10" s="36" t="s">
         <v>21</v>
@@ -12643,16 +12655,16 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
@@ -12679,16 +12691,16 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
@@ -12715,16 +12727,16 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
@@ -12751,16 +12763,16 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
@@ -12793,10 +12805,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
@@ -12829,10 +12841,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
@@ -12859,16 +12871,16 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -12923,10 +12935,10 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="36" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>21</v>
@@ -12959,16 +12971,16 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
@@ -12995,16 +13007,16 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
@@ -13031,16 +13043,16 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
@@ -13067,16 +13079,16 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
@@ -13103,16 +13115,16 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
@@ -13139,16 +13151,16 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
@@ -13175,16 +13187,16 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
@@ -13240,13 +13252,13 @@
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="23"/>
       <c r="B28" s="17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
@@ -13274,13 +13286,13 @@
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="23"/>
       <c r="B29" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
@@ -13336,13 +13348,13 @@
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="23"/>
       <c r="B31" s="17" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="E31" s="23"/>
       <c r="F31" s="23"/>
@@ -13370,13 +13382,13 @@
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="23"/>
       <c r="B32" s="17" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
@@ -13404,13 +13416,13 @@
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="23"/>
       <c r="B33" s="17" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
@@ -13533,16 +13545,16 @@
   </sheetPr>
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11:D23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.7244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="59.6683673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.0510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="58.9897959183674"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13731,10 +13743,10 @@
         <v>38</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -13764,13 +13776,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -13797,16 +13809,16 @@
     </row>
     <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -13833,16 +13845,16 @@
     </row>
     <row r="9" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -14903,24 +14915,24 @@
   <dimension ref="A1:Z45"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A11:D23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.0357142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.1479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>21</v>
@@ -14953,16 +14965,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -14989,16 +15001,16 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -15025,16 +15037,16 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -15061,16 +15073,16 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -15097,16 +15109,16 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -15133,16 +15145,16 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -15169,16 +15181,16 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -15205,16 +15217,16 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -15325,10 +15337,10 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>21</v>
@@ -15361,16 +15373,16 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -15397,16 +15409,16 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -15433,16 +15445,16 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -15469,16 +15481,16 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
@@ -15505,16 +15517,16 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -15541,16 +15553,16 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -15577,16 +15589,16 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -15613,16 +15625,16 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -15736,7 +15748,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>21</v>
@@ -15769,16 +15781,16 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -15805,16 +15817,16 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
@@ -15844,13 +15856,13 @@
         <v>37</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -15877,16 +15889,16 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -15913,16 +15925,16 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -15949,16 +15961,16 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -15985,16 +15997,16 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -16021,16 +16033,16 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -16114,13 +16126,13 @@
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
       <c r="B36" s="17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -16148,13 +16160,13 @@
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
       <c r="B37" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -16210,10 +16222,10 @@
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
       <c r="B39" s="18" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -16242,10 +16254,10 @@
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
       <c r="B40" s="18" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -16274,10 +16286,10 @@
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
       <c r="B41" s="18" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -16334,10 +16346,10 @@
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -16366,10 +16378,10 @@
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
       <c r="B44" s="18" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -16398,10 +16410,10 @@
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
       <c r="B45" s="18" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
@@ -16538,23 +16550,23 @@
   <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A11:D23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.0612244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>21</v>
@@ -16587,16 +16599,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E2" s="22" t="n">
         <v>17</v>
@@ -16627,16 +16639,16 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E3" s="22" t="n">
         <v>17</v>
@@ -16667,16 +16679,16 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E4" s="22" t="n">
         <v>26</v>
@@ -16735,10 +16747,10 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>21</v>
@@ -16771,16 +16783,16 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
@@ -16807,16 +16819,16 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -16843,16 +16855,16 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
@@ -16879,16 +16891,16 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
@@ -16915,16 +16927,16 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
@@ -16951,16 +16963,16 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
@@ -17015,10 +17027,10 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>21</v>
@@ -17051,16 +17063,16 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
@@ -17087,16 +17099,16 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
@@ -17180,13 +17192,13 @@
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="20"/>
       <c r="B19" s="17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
@@ -17214,13 +17226,13 @@
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="20"/>
       <c r="B20" s="17" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
@@ -17248,13 +17260,13 @@
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="20"/>
       <c r="B21" s="17" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
@@ -17282,13 +17294,13 @@
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="20"/>
       <c r="B22" s="17" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
@@ -17379,30 +17391,30 @@
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A11:D23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.69387755102041"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.2091836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>21</v>
@@ -17435,7 +17447,7 @@
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="24"/>
@@ -17463,22 +17475,22 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>11129</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
@@ -17503,22 +17515,22 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B4" s="6" t="n">
         <v>11193</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
@@ -17573,7 +17585,7 @@
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="24"/>
@@ -17601,22 +17613,22 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B7" s="6" t="n">
         <v>11089</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
@@ -17641,22 +17653,22 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B8" s="6" t="n">
         <v>11069</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
@@ -17711,7 +17723,7 @@
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="24"/>
@@ -17739,22 +17751,22 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B11" s="6" t="n">
         <v>11178</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
@@ -17779,22 +17791,22 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B12" s="11" t="n">
         <v>10817</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
@@ -17849,7 +17861,7 @@
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
       <c r="C14" s="11" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -17877,22 +17889,22 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B15" s="11" t="n">
         <v>10744</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
@@ -17917,22 +17929,22 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B16" s="11" t="n">
         <v>10732</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
@@ -17987,7 +17999,7 @@
       <c r="A18" s="23"/>
       <c r="B18" s="23"/>
       <c r="C18" s="11" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
@@ -18015,22 +18027,22 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B19" s="11" t="n">
         <v>10706</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
@@ -18055,22 +18067,22 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B20" s="11" t="n">
         <v>10774</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
@@ -18125,7 +18137,7 @@
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="11" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -18153,22 +18165,22 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B23" s="11" t="n">
         <v>10779</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
@@ -18193,22 +18205,22 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B24" s="11" t="n">
         <v>10895</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
@@ -18292,13 +18304,13 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
@@ -18326,13 +18338,13 @@
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
       <c r="D28" s="14" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
@@ -18418,27 +18430,27 @@
   <dimension ref="A1:AB25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A11:D23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.5408163265306"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.1581632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.8877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.7551020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>21</v>
@@ -18473,16 +18485,16 @@
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -18511,16 +18523,16 @@
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -18549,16 +18561,16 @@
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -18587,16 +18599,16 @@
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -18625,16 +18637,16 @@
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -18694,13 +18706,13 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -18730,13 +18742,13 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="14" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -18854,13 +18866,13 @@
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>21</v>
@@ -18893,7 +18905,7 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B14" s="6" t="n">
         <v>10709</v>
@@ -18905,10 +18917,10 @@
         <v>9</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -18935,22 +18947,22 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B15" s="6" t="n">
         <v>11172</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -18977,22 +18989,22 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B16" s="6" t="n">
         <v>11155</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -19019,22 +19031,22 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B17" s="6" t="n">
         <v>11156</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
@@ -19061,7 +19073,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B18" s="6" t="n">
         <v>11092</v>
@@ -19073,10 +19085,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -19103,22 +19115,22 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B19" s="6" t="n">
         <v>10942</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -19145,7 +19157,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B20" s="6" t="n">
         <v>10760</v>
@@ -19157,10 +19169,10 @@
         <v>15</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -19187,22 +19199,22 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B21" s="6" t="n">
         <v>10587</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
@@ -19229,7 +19241,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B22" s="6" t="n">
         <v>10445</v>
@@ -19238,13 +19250,13 @@
         <v>26</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -19304,13 +19316,13 @@
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="14" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -19407,24 +19419,24 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A11:D23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.4897959183674"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.3163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="30.9132653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.1836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>21</v>
@@ -19457,16 +19469,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
@@ -19493,16 +19505,16 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
@@ -19529,16 +19541,16 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
@@ -19571,10 +19583,10 @@
         <v>19</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
@@ -19601,16 +19613,16 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
@@ -19637,16 +19649,16 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
@@ -19673,16 +19685,16 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
@@ -19709,16 +19721,16 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
@@ -19745,16 +19757,16 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
@@ -19781,16 +19793,16 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
@@ -19845,10 +19857,10 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>21</v>
@@ -19881,16 +19893,16 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
@@ -19917,16 +19929,16 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
@@ -19953,16 +19965,16 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
@@ -19989,16 +20001,16 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -20031,10 +20043,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
@@ -20061,16 +20073,16 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -20097,16 +20109,16 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
@@ -20133,16 +20145,16 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
@@ -20169,16 +20181,16 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
@@ -20205,16 +20217,16 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
@@ -20270,13 +20282,13 @@
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="23"/>
       <c r="B25" s="17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
@@ -20304,13 +20316,13 @@
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="23"/>
       <c r="B26" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
@@ -20366,10 +20378,10 @@
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="23"/>
       <c r="B28" s="18" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="23"/>
@@ -20398,10 +20410,10 @@
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="23"/>
       <c r="B29" s="18" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="23"/>
@@ -20458,10 +20470,10 @@
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="23"/>
       <c r="B31" s="18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="23"/>
@@ -20490,10 +20502,10 @@
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="23"/>
       <c r="B32" s="18" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="23"/>
@@ -20614,23 +20626,23 @@
   <dimension ref="A1:Z49"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A11:D23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.6530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.4795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="28.7551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.1122448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.8061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>21</v>
@@ -20663,16 +20675,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -20699,10 +20711,10 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="26" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -20731,16 +20743,16 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -20767,10 +20779,10 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="26" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -20799,16 +20811,16 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -20835,10 +20847,10 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="26" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -20867,10 +20879,10 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="26" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -20899,16 +20911,16 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -20935,16 +20947,16 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -20971,10 +20983,10 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="26" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -21003,16 +21015,16 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -21039,16 +21051,16 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -21075,10 +21087,10 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="26" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -21107,16 +21119,16 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -21143,10 +21155,10 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="26" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -21175,10 +21187,10 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="26" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -21207,16 +21219,16 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
@@ -21243,16 +21255,16 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
@@ -21279,16 +21291,16 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -21315,10 +21327,10 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="26" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -21347,16 +21359,16 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -21383,16 +21395,16 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -21419,16 +21431,16 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
@@ -21455,16 +21467,16 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -21491,16 +21503,16 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -21527,10 +21539,10 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="26" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -21559,16 +21571,16 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -21595,16 +21607,16 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -21631,16 +21643,16 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -21667,16 +21679,16 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -21731,10 +21743,10 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>21</v>
@@ -21767,16 +21779,16 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="28" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -21809,10 +21821,10 @@
         <v>19</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -21839,16 +21851,16 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="28" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -21875,16 +21887,16 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="28" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -21911,16 +21923,16 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="28" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -21947,16 +21959,16 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="28" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -22040,10 +22052,10 @@
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
       <c r="B42" s="17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -22072,10 +22084,10 @@
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -22104,10 +22116,10 @@
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
       <c r="B44" s="18" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -22192,10 +22204,10 @@
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
       <c r="B47" s="17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -22224,10 +22236,10 @@
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
       <c r="B48" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -22256,10 +22268,10 @@
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
       <c r="B49" s="18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -22406,24 +22418,24 @@
   <dimension ref="A1:Z30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A11:D23 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.8724489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.1224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.7551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.3316326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.6938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.719387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>21</v>
@@ -22456,16 +22468,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="23" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
@@ -22548,10 +22560,10 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>21</v>
@@ -22584,16 +22596,16 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
@@ -22620,16 +22632,16 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="23" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="E7" s="23"/>
       <c r="F7" s="23"/>
@@ -22656,16 +22668,16 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="23" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
@@ -22692,16 +22704,16 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="23" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
@@ -22784,10 +22796,10 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>21</v>
@@ -22820,16 +22832,16 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
@@ -22856,16 +22868,16 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
@@ -22892,16 +22904,16 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
@@ -22928,16 +22940,16 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
@@ -22964,16 +22976,16 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
@@ -23000,16 +23012,16 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="28" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
@@ -23036,16 +23048,16 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="28" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -23072,16 +23084,16 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="28" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
@@ -23108,16 +23120,16 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
@@ -23144,16 +23156,16 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
@@ -23180,16 +23192,16 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
@@ -23222,10 +23234,10 @@
         <v>7</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
@@ -23309,13 +23321,13 @@
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="23"/>
       <c r="B27" s="17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
@@ -23343,13 +23355,13 @@
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="23"/>
       <c r="B28" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="E28" s="23"/>
       <c r="F28" s="23"/>
@@ -23377,13 +23389,13 @@
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="23"/>
       <c r="B29" s="17" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="E29" s="23"/>
       <c r="F29" s="23"/>
@@ -23411,13 +23423,13 @@
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="23"/>
       <c r="B30" s="17" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="E30" s="23"/>
       <c r="F30" s="23"/>
